--- a/files/plantilla disponibilidad EYC.xlsx
+++ b/files/plantilla disponibilidad EYC.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\eyc\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78E5CE7F-17D1-4A20-9E24-006D924334C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A1CB44-C376-4CB7-B409-5460FF5E6AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{478FBCF6-45EE-44ED-883F-D689877F1BA7}"/>
+    <workbookView xWindow="20370" yWindow="-1005" windowWidth="21840" windowHeight="13020" xr2:uid="{478FBCF6-45EE-44ED-883F-D689877F1BA7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="disponibilidad" sheetId="1" r:id="rId1"/>
+    <sheet name="Horas de las franjas" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -62,14 +63,29 @@
     <t>01:00 pm</t>
   </si>
   <si>
-    <t>02:00 pm</t>
+    <t>03:00 pm</t>
+  </si>
+  <si>
+    <t>07:00 am</t>
+  </si>
+  <si>
+    <t>09:00 am</t>
+  </si>
+  <si>
+    <t>12:00 pm</t>
+  </si>
+  <si>
+    <t>05:00 pm</t>
+  </si>
+  <si>
+    <t>ENVIGADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +100,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -111,10 +140,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,14 +482,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7E52A9-0C9B-4C77-99BE-211FEF71FEC9}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -495,10 +529,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -515,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -538,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -555,10 +589,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -569,16 +603,16 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -589,16 +623,16 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -609,7 +643,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -618,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -629,16 +663,16 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -649,16 +683,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -669,16 +703,16 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -689,7 +723,7 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -698,7 +732,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -709,17 +743,4706 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>14</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>16</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>16</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>17</v>
+      </c>
+      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <v>9</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>17</v>
+      </c>
+      <c r="D68">
+        <v>9</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>17</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>18</v>
+      </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>9</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>18</v>
+      </c>
+      <c r="D72">
+        <v>9</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>18</v>
+      </c>
+      <c r="D73">
+        <v>9</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>19</v>
+      </c>
+      <c r="D74">
+        <v>9</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>9</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>9</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="D78">
+        <v>9</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>9</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>9</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>21</v>
+      </c>
+      <c r="D82">
+        <v>9</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>21</v>
+      </c>
+      <c r="D83">
+        <v>9</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>21</v>
+      </c>
+      <c r="D84">
+        <v>9</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>21</v>
+      </c>
+      <c r="D85">
+        <v>9</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>22</v>
+      </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>22</v>
+      </c>
+      <c r="D87">
+        <v>9</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>22</v>
+      </c>
+      <c r="D88">
+        <v>9</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>22</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>23</v>
+      </c>
+      <c r="D90">
+        <v>9</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>23</v>
+      </c>
+      <c r="D91">
+        <v>9</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>23</v>
+      </c>
+      <c r="D92">
+        <v>9</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>23</v>
+      </c>
+      <c r="D93">
+        <v>9</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>24</v>
+      </c>
+      <c r="D94">
+        <v>9</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>24</v>
+      </c>
+      <c r="D95">
+        <v>9</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>24</v>
+      </c>
+      <c r="D96">
+        <v>9</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>24</v>
+      </c>
+      <c r="D97">
+        <v>9</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>25</v>
+      </c>
+      <c r="D98">
+        <v>9</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>25</v>
+      </c>
+      <c r="D99">
+        <v>9</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>25</v>
+      </c>
+      <c r="D100">
+        <v>9</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>25</v>
+      </c>
+      <c r="D101">
+        <v>9</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>26</v>
+      </c>
+      <c r="D102">
+        <v>9</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>26</v>
+      </c>
+      <c r="D103">
+        <v>9</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>26</v>
+      </c>
+      <c r="D104">
+        <v>9</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>26</v>
+      </c>
+      <c r="D105">
+        <v>9</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>27</v>
+      </c>
+      <c r="D106">
+        <v>9</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>27</v>
+      </c>
+      <c r="D107">
+        <v>9</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>27</v>
+      </c>
+      <c r="D108">
+        <v>9</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>27</v>
+      </c>
+      <c r="D109">
+        <v>9</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>28</v>
+      </c>
+      <c r="D110">
+        <v>9</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>28</v>
+      </c>
+      <c r="D111">
+        <v>9</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>28</v>
+      </c>
+      <c r="D112">
+        <v>9</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>28</v>
+      </c>
+      <c r="D113">
+        <v>9</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>29</v>
+      </c>
+      <c r="D114">
+        <v>9</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>29</v>
+      </c>
+      <c r="D115">
+        <v>9</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>29</v>
+      </c>
+      <c r="D116">
+        <v>9</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>29</v>
+      </c>
+      <c r="D117">
+        <v>9</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>30</v>
+      </c>
+      <c r="D118">
+        <v>9</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>30</v>
+      </c>
+      <c r="D119">
+        <v>9</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>30</v>
+      </c>
+      <c r="D120">
+        <v>9</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>30</v>
+      </c>
+      <c r="D121">
+        <v>9</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>2</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="4">
+        <v>1</v>
+      </c>
+      <c r="D122" s="4">
+        <v>9</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>9</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>9</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>9</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>9</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>9</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>9</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>9</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>9</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>9</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>9</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+      <c r="D133">
+        <v>9</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134">
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <v>9</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>9</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>9</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <v>9</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <v>9</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139">
+        <v>9</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140">
+        <v>5</v>
+      </c>
+      <c r="D140">
+        <v>9</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>9</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142">
+        <v>6</v>
+      </c>
+      <c r="D142">
+        <v>9</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143">
+        <v>6</v>
+      </c>
+      <c r="D143">
+        <v>9</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144">
+        <v>6</v>
+      </c>
+      <c r="D144">
+        <v>9</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145">
+        <v>6</v>
+      </c>
+      <c r="D145">
+        <v>9</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146">
+        <v>7</v>
+      </c>
+      <c r="D146">
+        <v>9</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147">
+        <v>7</v>
+      </c>
+      <c r="D147">
+        <v>9</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148">
+        <v>7</v>
+      </c>
+      <c r="D148">
+        <v>9</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149">
+        <v>7</v>
+      </c>
+      <c r="D149">
+        <v>9</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150">
+        <v>8</v>
+      </c>
+      <c r="D150">
+        <v>9</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151">
+        <v>8</v>
+      </c>
+      <c r="D151">
+        <v>9</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152">
+        <v>8</v>
+      </c>
+      <c r="D152">
+        <v>9</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153">
+        <v>8</v>
+      </c>
+      <c r="D153">
+        <v>9</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154">
+        <v>9</v>
+      </c>
+      <c r="D154">
+        <v>9</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155">
+        <v>9</v>
+      </c>
+      <c r="D155">
+        <v>9</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156">
+        <v>9</v>
+      </c>
+      <c r="D156">
+        <v>9</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>9</v>
+      </c>
+      <c r="D157">
+        <v>9</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158">
+        <v>10</v>
+      </c>
+      <c r="D158">
+        <v>9</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159">
+        <v>10</v>
+      </c>
+      <c r="D159">
+        <v>9</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160">
+        <v>10</v>
+      </c>
+      <c r="D160">
+        <v>9</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161">
+        <v>10</v>
+      </c>
+      <c r="D161">
+        <v>9</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162">
+        <v>11</v>
+      </c>
+      <c r="D162">
+        <v>9</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163">
+        <v>11</v>
+      </c>
+      <c r="D163">
+        <v>9</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164">
+        <v>11</v>
+      </c>
+      <c r="D164">
+        <v>9</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165">
+        <v>11</v>
+      </c>
+      <c r="D165">
+        <v>9</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166">
+        <v>12</v>
+      </c>
+      <c r="D166">
+        <v>9</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167">
+        <v>12</v>
+      </c>
+      <c r="D167">
+        <v>9</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168">
+        <v>12</v>
+      </c>
+      <c r="D168">
+        <v>9</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169">
+        <v>12</v>
+      </c>
+      <c r="D169">
+        <v>9</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170">
+        <v>13</v>
+      </c>
+      <c r="D170">
+        <v>9</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171">
+        <v>13</v>
+      </c>
+      <c r="D171">
+        <v>9</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172">
+        <v>13</v>
+      </c>
+      <c r="D172">
+        <v>9</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173">
+        <v>13</v>
+      </c>
+      <c r="D173">
+        <v>9</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174">
+        <v>14</v>
+      </c>
+      <c r="D174">
+        <v>9</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175">
+        <v>14</v>
+      </c>
+      <c r="D175">
+        <v>9</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176">
+        <v>14</v>
+      </c>
+      <c r="D176">
+        <v>9</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177">
+        <v>14</v>
+      </c>
+      <c r="D177">
+        <v>9</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178">
+        <v>15</v>
+      </c>
+      <c r="D178">
+        <v>9</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179">
+        <v>15</v>
+      </c>
+      <c r="D179">
+        <v>9</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180">
+        <v>15</v>
+      </c>
+      <c r="D180">
+        <v>9</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181">
+        <v>15</v>
+      </c>
+      <c r="D181">
+        <v>9</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182">
+        <v>16</v>
+      </c>
+      <c r="D182">
+        <v>9</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183">
+        <v>16</v>
+      </c>
+      <c r="D183">
+        <v>9</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184">
+        <v>16</v>
+      </c>
+      <c r="D184">
+        <v>9</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185">
+        <v>16</v>
+      </c>
+      <c r="D185">
+        <v>9</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186">
+        <v>17</v>
+      </c>
+      <c r="D186">
+        <v>9</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187">
+        <v>17</v>
+      </c>
+      <c r="D187">
+        <v>9</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188">
+        <v>17</v>
+      </c>
+      <c r="D188">
+        <v>9</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189">
+        <v>17</v>
+      </c>
+      <c r="D189">
+        <v>9</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190">
+        <v>18</v>
+      </c>
+      <c r="D190">
+        <v>9</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191">
+        <v>18</v>
+      </c>
+      <c r="D191">
+        <v>9</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192">
+        <v>18</v>
+      </c>
+      <c r="D192">
+        <v>9</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193">
+        <v>18</v>
+      </c>
+      <c r="D193">
+        <v>9</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194">
+        <v>19</v>
+      </c>
+      <c r="D194">
+        <v>9</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195">
+        <v>19</v>
+      </c>
+      <c r="D195">
+        <v>9</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196">
+        <v>19</v>
+      </c>
+      <c r="D196">
+        <v>9</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197">
+        <v>19</v>
+      </c>
+      <c r="D197">
+        <v>9</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198">
+        <v>20</v>
+      </c>
+      <c r="D198">
+        <v>9</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199">
+        <v>20</v>
+      </c>
+      <c r="D199">
+        <v>9</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200">
+        <v>20</v>
+      </c>
+      <c r="D200">
+        <v>9</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201">
+        <v>20</v>
+      </c>
+      <c r="D201">
+        <v>9</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202">
+        <v>21</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203">
+        <v>21</v>
+      </c>
+      <c r="D203">
+        <v>9</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204">
+        <v>21</v>
+      </c>
+      <c r="D204">
+        <v>9</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205">
+        <v>21</v>
+      </c>
+      <c r="D205">
+        <v>9</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206">
+        <v>22</v>
+      </c>
+      <c r="D206">
+        <v>9</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207">
+        <v>22</v>
+      </c>
+      <c r="D207">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208">
+        <v>22</v>
+      </c>
+      <c r="D208">
+        <v>9</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209">
+        <v>22</v>
+      </c>
+      <c r="D209">
+        <v>9</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210">
+        <v>23</v>
+      </c>
+      <c r="D210">
+        <v>9</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211">
+        <v>23</v>
+      </c>
+      <c r="D211">
+        <v>9</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212">
+        <v>23</v>
+      </c>
+      <c r="D212">
+        <v>9</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213">
+        <v>23</v>
+      </c>
+      <c r="D213">
+        <v>9</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2</v>
+      </c>
+      <c r="B214" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214">
+        <v>24</v>
+      </c>
+      <c r="D214">
+        <v>9</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215">
+        <v>24</v>
+      </c>
+      <c r="D215">
+        <v>9</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216">
+        <v>24</v>
+      </c>
+      <c r="D216">
+        <v>9</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217">
+        <v>24</v>
+      </c>
+      <c r="D217">
+        <v>9</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2</v>
+      </c>
+      <c r="B218" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218">
+        <v>25</v>
+      </c>
+      <c r="D218">
+        <v>9</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2</v>
+      </c>
+      <c r="B219" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219">
+        <v>25</v>
+      </c>
+      <c r="D219">
+        <v>9</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2</v>
+      </c>
+      <c r="B220" t="s">
+        <v>13</v>
+      </c>
+      <c r="C220">
+        <v>25</v>
+      </c>
+      <c r="D220">
+        <v>9</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2</v>
+      </c>
+      <c r="B221" t="s">
+        <v>13</v>
+      </c>
+      <c r="C221">
+        <v>25</v>
+      </c>
+      <c r="D221">
+        <v>9</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222">
+        <v>26</v>
+      </c>
+      <c r="D222">
+        <v>9</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2</v>
+      </c>
+      <c r="B223" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223">
+        <v>26</v>
+      </c>
+      <c r="D223">
+        <v>9</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2</v>
+      </c>
+      <c r="B224" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224">
+        <v>26</v>
+      </c>
+      <c r="D224">
+        <v>9</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="B225" t="s">
+        <v>13</v>
+      </c>
+      <c r="C225">
+        <v>26</v>
+      </c>
+      <c r="D225">
+        <v>9</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="B226" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226">
+        <v>27</v>
+      </c>
+      <c r="D226">
+        <v>9</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="B227" t="s">
+        <v>13</v>
+      </c>
+      <c r="C227">
+        <v>27</v>
+      </c>
+      <c r="D227">
+        <v>9</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2</v>
+      </c>
+      <c r="B228" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228">
+        <v>27</v>
+      </c>
+      <c r="D228">
+        <v>9</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>2</v>
+      </c>
+      <c r="B229" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229">
+        <v>27</v>
+      </c>
+      <c r="D229">
+        <v>9</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>2</v>
+      </c>
+      <c r="B230" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230">
+        <v>28</v>
+      </c>
+      <c r="D230">
+        <v>9</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>2</v>
+      </c>
+      <c r="B231" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231">
+        <v>28</v>
+      </c>
+      <c r="D231">
+        <v>9</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>2</v>
+      </c>
+      <c r="B232" t="s">
+        <v>13</v>
+      </c>
+      <c r="C232">
+        <v>28</v>
+      </c>
+      <c r="D232">
+        <v>9</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2</v>
+      </c>
+      <c r="B233" t="s">
+        <v>13</v>
+      </c>
+      <c r="C233">
+        <v>28</v>
+      </c>
+      <c r="D233">
+        <v>9</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>2</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234">
+        <v>29</v>
+      </c>
+      <c r="D234">
+        <v>9</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>2</v>
+      </c>
+      <c r="B235" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235">
+        <v>29</v>
+      </c>
+      <c r="D235">
+        <v>9</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>2</v>
+      </c>
+      <c r="B236" t="s">
+        <v>13</v>
+      </c>
+      <c r="C236">
+        <v>29</v>
+      </c>
+      <c r="D236">
+        <v>9</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>2</v>
+      </c>
+      <c r="B237" t="s">
+        <v>13</v>
+      </c>
+      <c r="C237">
+        <v>29</v>
+      </c>
+      <c r="D237">
+        <v>9</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>2</v>
+      </c>
+      <c r="B238" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238">
+        <v>30</v>
+      </c>
+      <c r="D238">
+        <v>9</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2</v>
+      </c>
+      <c r="B239" t="s">
+        <v>13</v>
+      </c>
+      <c r="C239">
+        <v>30</v>
+      </c>
+      <c r="D239">
+        <v>9</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>2</v>
+      </c>
+      <c r="B240" t="s">
+        <v>13</v>
+      </c>
+      <c r="C240">
+        <v>30</v>
+      </c>
+      <c r="D240">
+        <v>9</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>2</v>
+      </c>
+      <c r="B241" t="s">
+        <v>13</v>
+      </c>
+      <c r="C241">
+        <v>30</v>
+      </c>
+      <c r="D241">
+        <v>9</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="4"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
+      <c r="G242" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{217E283C-3738-4BCB-AA54-22D35FF7E363}">
+          <x14:formula1>
+            <xm:f>'Horas de las franjas'!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E101 E122:E221</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2D8E217A-C798-4CE2-8047-E47CE3519654}">
+          <x14:formula1>
+            <xm:f>'Horas de las franjas'!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F101 F122:F221</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B484BA0-03C7-49D7-8EB8-6FCA8396BE9F}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
